--- a/Output/1988/Connecticut/Connecticut.xlsx
+++ b/Output/1988/Connecticut/Connecticut.xlsx
@@ -1130,9 +1130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3BA1F8-B31B-B345-A485-9BA946FB39C3}">
   <dimension ref="A1:Z183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
